--- a/InputData/indst/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/indst/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\India EPS\InputData INDIA FINAL\indst\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\EPS India\eps-1.4.2-india-v3\eps-1.4.2-india-v3_working folder\InputData\indst\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECAC248-A742-4C5F-9E78-3DDF460C3919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calcs" sheetId="3" r:id="rId2"/>
     <sheet name="WMITR" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Workers</t>
   </si>
@@ -38,15 +47,6 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>GNI per capita (2016 USD)</t>
-  </si>
-  <si>
-    <t>2016 USD to Rupiah</t>
-  </si>
-  <si>
-    <t>GNI per capita (2016 Rupees)</t>
-  </si>
-  <si>
     <t>Income Tax Slab Rate For Men below 60 Years of Age</t>
   </si>
   <si>
@@ -56,12 +56,6 @@
     <t>Income Tax Rate</t>
   </si>
   <si>
-    <t>Education Cess</t>
-  </si>
-  <si>
-    <t>Secondary and Higher Education Cess</t>
-  </si>
-  <si>
     <t>Income upto Rs. 2,50,000</t>
   </si>
   <si>
@@ -74,12 +68,6 @@
     <t>5% of Income exceeding Rs. 2,50,000</t>
   </si>
   <si>
-    <t>2% of income tax</t>
-  </si>
-  <si>
-    <t>1% of income tax</t>
-  </si>
-  <si>
     <t>Income between Rs. 500,001 - Rs. 10,00,000</t>
   </si>
   <si>
@@ -110,23 +98,59 @@
     <t>HDFC Life</t>
   </si>
   <si>
-    <t>Income Tax Slab Rate &amp; Deductions - FY 2017-18 (AY 2018-19)</t>
-  </si>
-  <si>
-    <t>https://www.hdfclife.com/insurance-knowledge-centre/tax-saving-insurance/latest-income-tax-slab-and-deductions-fy-2017-18</t>
-  </si>
-  <si>
-    <t>The average Indian makes less than than minimum level for income taxes,</t>
-  </si>
-  <si>
     <t>so we use a value of zero.</t>
+  </si>
+  <si>
+    <t>GNI per capita (2018 USD)</t>
+  </si>
+  <si>
+    <t>2018 USD to INR</t>
+  </si>
+  <si>
+    <t>GNI per capita (2018 INR)</t>
+  </si>
+  <si>
+    <t>https://www.hdfclife.com/insurance-knowledge-centre/tax-saving-insurance/latest-income-tax-slab-and-deductions-fy-2018-19</t>
+  </si>
+  <si>
+    <t>Income Tax Slab Rate &amp; Deductions - FY 2018-19 (AY 2019-20)</t>
+  </si>
+  <si>
+    <t>Income Tax Slab Rate for Women below 60 Years of Age</t>
+  </si>
+  <si>
+    <t>Income upto Rs. 3,00,000</t>
+  </si>
+  <si>
+    <t>Income between Rs. 3,00,001 - Rs. 500,000</t>
+  </si>
+  <si>
+    <t>5% of Income exceeding Rs. 3,00,000</t>
+  </si>
+  <si>
+    <t>Income Tax Slab Rate For Senior Citizens below (&gt;80 years)</t>
+  </si>
+  <si>
+    <t>Income upto Rs. 5,00,000</t>
+  </si>
+  <si>
+    <t>Income Tax Slab Rate For Senior Citizens (60-80 years)</t>
+  </si>
+  <si>
+    <t>The average Indian individual makes less than than minimum level for income taxes,</t>
+  </si>
+  <si>
+    <t>Income tax slabs for Individuals are considered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +193,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -190,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,62 +231,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -265,29 +260,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -380,6 +371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -415,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,315 +615,416 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{1E93F76D-69D1-41E1-B875-2C9AA29A4818}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>69.569999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12">
+        <f>B2*B1</f>
+        <v>140531.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>64.95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <f>B2*B1</f>
-        <v>108466.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="48.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="F12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="G13" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="78.75">
-      <c r="A11" s="5" t="s">
+      <c r="G22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="78.75">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="94.5">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
+    </row>
+    <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
